--- a/color.xlsx
+++ b/color.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kongbaiyo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kongbaiyo\Desktop\Minecraft\saves\Miecraft test\datapacks\miecraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="颜色代码" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Untitled_1" localSheetId="0">Sheet1!$A$7:$E$21</definedName>
+    <definedName name="Untitled_1" localSheetId="1">Sheet1!$A$7:$E$21</definedName>
+    <definedName name="Untitled_1" localSheetId="0">颜色代码!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,11 +41,26 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="Untitled-11" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\kongbaiyo\Desktop\Untitled-1.txt" tab="0" delimiter="|">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>#F07613</t>
   </si>
@@ -111,6 +128,247 @@
   </si>
   <si>
     <t>十六进制颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>汉字颜色</t>
+  </si>
+  <si>
+    <t>json颜色</t>
+  </si>
+  <si>
+    <t>游戏内颜色</t>
+  </si>
+  <si>
+    <t>羊毛类型</t>
+  </si>
+  <si>
+    <t>皮革甲color</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>white_wool</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>orange_wool</t>
+  </si>
+  <si>
+    <t>紫红</t>
+  </si>
+  <si>
+    <t>dark_purple</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>magenta_wool</t>
+  </si>
+  <si>
+    <t>海蓝</t>
+  </si>
+  <si>
+    <t>aqua</t>
+  </si>
+  <si>
+    <t>light_blue</t>
+  </si>
+  <si>
+    <t>light_blue_wool</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>yellow_wool</t>
+  </si>
+  <si>
+    <t>柠</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>lime_wool</t>
+  </si>
+  <si>
+    <t>粉</t>
+  </si>
+  <si>
+    <t>light_purple</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>pink_wool</t>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>dark_gray</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>gray_wool</t>
+  </si>
+  <si>
+    <t>浅灰</t>
+  </si>
+  <si>
+    <t>light_gray</t>
+  </si>
+  <si>
+    <t>light_gray_wool</t>
+  </si>
+  <si>
+    <t>青</t>
+  </si>
+  <si>
+    <t>dark_aqua</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>cyan_wool</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>dark_blue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>purple_wool</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>blue_wool</t>
+  </si>
+  <si>
+    <t>棕</t>
+  </si>
+  <si>
+    <t>dark_red</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>brown_wool</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>dark_green</t>
+  </si>
+  <si>
+    <t>green_wool</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>red_wool</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>black_wool</t>
+  </si>
+  <si>
+    <t>dust粒子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.941 0.463 0.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.741 0.267 0.702</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.227 0.686 0.851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.973 0.776 0.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.439 0.725 0.098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.929 0.553 0.675</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.243 0.267 0.278</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.557 0.557 0.525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.082 0.537 0.569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.475 0.165 0.675</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.208 0.224 0.616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.447 0.278 0.157</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.329 0.427 0.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.631 0.153 0.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.078 0.082 0.098</t>
+  </si>
+  <si>
+    <t>1 1 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,6 +467,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Untitled-1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Untitled-1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -475,9 +737,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>16777215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3">
+        <v>15758867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <v>12403891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5">
+        <v>3846105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6">
+        <v>16303655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7">
+        <v>7387417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8">
+        <v>15568300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9">
+        <v>4080711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10">
+        <v>9342598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11">
+        <v>1411473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12">
+        <v>7940780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13">
+        <v>3488157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <v>7489320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15">
+        <v>5532955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16">
+        <v>10561314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>1316121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/color.xlsx
+++ b/color.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="颜色代码" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="Untitled_1" localSheetId="1">Sheet1!$A$7:$E$21</definedName>
-    <definedName name="Untitled_1" localSheetId="0">颜色代码!$A$1:$H$17</definedName>
+    <definedName name="Untitled_1" localSheetId="0">颜色代码!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="149">
   <si>
     <t>#F07613</t>
   </si>
@@ -370,6 +370,153 @@
   <si>
     <t>1 1 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量计分板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mie_eg_white</t>
+  </si>
+  <si>
+    <t>mie_eg_orange</t>
+  </si>
+  <si>
+    <t>mie_eg_magenta</t>
+  </si>
+  <si>
+    <t>mie_eg_l_blue</t>
+  </si>
+  <si>
+    <t>mie_eg_yellow</t>
+  </si>
+  <si>
+    <t>mie_eg_lime</t>
+  </si>
+  <si>
+    <t>mie_eg_pink</t>
+  </si>
+  <si>
+    <t>mie_eg_gray</t>
+  </si>
+  <si>
+    <t>mie_eg_l_gray</t>
+  </si>
+  <si>
+    <t>mie_eg_cyan</t>
+  </si>
+  <si>
+    <t>mie_eg_purple</t>
+  </si>
+  <si>
+    <t>mie_eg_blue</t>
+  </si>
+  <si>
+    <t>mie_eg_brown</t>
+  </si>
+  <si>
+    <t>mie_eg_green</t>
+  </si>
+  <si>
+    <t>mie_eg_red</t>
+  </si>
+  <si>
+    <t>mie_eg_black</t>
+  </si>
+  <si>
+    <t>§f</t>
+  </si>
+  <si>
+    <t>§6</t>
+  </si>
+  <si>
+    <t>§5</t>
+  </si>
+  <si>
+    <t>§b</t>
+  </si>
+  <si>
+    <t>§e</t>
+  </si>
+  <si>
+    <t>§a</t>
+  </si>
+  <si>
+    <t>§d</t>
+  </si>
+  <si>
+    <t>§8</t>
+  </si>
+  <si>
+    <t>§7</t>
+  </si>
+  <si>
+    <t>§3</t>
+  </si>
+  <si>
+    <t>§1</t>
+  </si>
+  <si>
+    <t>§9</t>
+  </si>
+  <si>
+    <t>§4</t>
+  </si>
+  <si>
+    <t>§2</t>
+  </si>
+  <si>
+    <t>§c</t>
+  </si>
+  <si>
+    <t>§0</t>
+  </si>
+  <si>
+    <t>颜色代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字颜色2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>柠色</t>
+  </si>
+  <si>
+    <t>粉色</t>
+  </si>
+  <si>
+    <t>灰色</t>
+  </si>
+  <si>
+    <t>青色</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>棕色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>黑色</t>
   </si>
 </sst>
 </file>
@@ -737,23 +884,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -761,22 +909,31 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -784,22 +941,31 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>16777215</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -807,22 +973,31 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>85</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15758867</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -830,22 +1005,31 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>86</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>12403891</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -853,22 +1037,31 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>87</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3846105</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -876,22 +1069,31 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>16303655</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -899,22 +1101,31 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7387417</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -922,22 +1133,31 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15568300</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -945,22 +1165,31 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>91</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4080711</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -968,22 +1197,31 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>92</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9342598</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -991,22 +1229,31 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>93</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1411473</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1014,22 +1261,31 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>94</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>7940780</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1037,22 +1293,31 @@
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
         <v>70</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>95</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3488157</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1060,22 +1325,31 @@
         <v>71</v>
       </c>
       <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7489320</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1083,22 +1357,31 @@
         <v>75</v>
       </c>
       <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5532955</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1106,22 +1389,31 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
         <v>79</v>
       </c>
       <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10561314</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1129,19 +1421,28 @@
         <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
       <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>99</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1316121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/color.xlsx
+++ b/color.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="颜色代码" sheetId="3" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>海蓝</t>
   </si>
   <si>
-    <t>aqua</t>
-  </si>
-  <si>
     <t>light_blue</t>
   </si>
   <si>
@@ -517,6 +514,10 @@
   </si>
   <si>
     <t>黑色</t>
+  </si>
+  <si>
+    <t>aqua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -887,7 +888,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -909,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -921,16 +922,16 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -941,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -953,16 +954,16 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>16777215</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -973,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
@@ -985,16 +986,16 @@
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3">
         <v>15758867</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1017,16 +1018,16 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>12403891</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1040,25 +1041,25 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>3846105</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1066,31 +1067,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6">
         <v>16303655</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1098,31 +1099,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>7387417</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1130,31 +1131,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>15568300</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1162,31 +1163,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9">
         <v>4080711</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1194,31 +1195,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10">
         <v>9342598</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1226,31 +1227,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11">
         <v>1411473</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1258,31 +1259,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12">
         <v>7940780</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1290,31 +1291,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13">
         <v>3488157</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1322,31 +1323,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <v>7489320</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1354,31 +1355,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>5532955</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1386,31 +1387,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16">
         <v>10561314</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1418,31 +1419,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17">
         <v>1316121</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/color.xlsx
+++ b/color.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="16695" windowHeight="7050"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="16695" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="颜色代码" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Untitled_1" localSheetId="1">Sheet1!$A$7:$E$21</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="184">
   <si>
     <t>#F07613</t>
   </si>
@@ -164,9 +165,6 @@
     <t>gold</t>
   </si>
   <si>
-    <t>orange</t>
-  </si>
-  <si>
     <t>orange_wool</t>
   </si>
   <si>
@@ -517,6 +515,119 @@
   </si>
   <si>
     <t>aqua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪下的物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_bone_meal</t>
+  </si>
+  <si>
+    <t>magic_tropical_fish</t>
+  </si>
+  <si>
+    <t>magic_chorus_fruit</t>
+  </si>
+  <si>
+    <t>magic_ice</t>
+  </si>
+  <si>
+    <t>magic_gold_nugget</t>
+  </si>
+  <si>
+    <t>magic_sugar_cane</t>
+  </si>
+  <si>
+    <t>magic_beetroot</t>
+  </si>
+  <si>
+    <t>magic_gunpowder</t>
+  </si>
+  <si>
+    <t>magic_iron_nugget</t>
+  </si>
+  <si>
+    <t>magic_prismarine_shard</t>
+  </si>
+  <si>
+    <t>magic_obsidian</t>
+  </si>
+  <si>
+    <t>magic_lapis_lazuli</t>
+  </si>
+  <si>
+    <t>magic_bricks</t>
+  </si>
+  <si>
+    <t>magic_oak_wood</t>
+  </si>
+  <si>
+    <t>magic_ender_pearl</t>
+  </si>
+  <si>
+    <t>magic_redstone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨粉</t>
+  </si>
+  <si>
+    <t>热带鱼</t>
+  </si>
+  <si>
+    <t>紫颂果</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>金粒</t>
+  </si>
+  <si>
+    <t>甘蔗</t>
+  </si>
+  <si>
+    <t>甜菜根</t>
+  </si>
+  <si>
+    <t>火药</t>
+  </si>
+  <si>
+    <t>铁粒</t>
+  </si>
+  <si>
+    <t>海晶碎片</t>
+  </si>
+  <si>
+    <t>黑曜石</t>
+  </si>
+  <si>
+    <t>青金石</t>
+  </si>
+  <si>
+    <t>砖块</t>
+  </si>
+  <si>
+    <t>橡木</t>
+  </si>
+  <si>
+    <t>红石</t>
+  </si>
+  <si>
+    <t>末影珍珠</t>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注魔后物品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,7 +1013,7 @@
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -910,7 +1021,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -922,19 +1033,28 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -942,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -954,19 +1074,25 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>16777215</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -974,476 +1100,566 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>15758867</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4">
         <v>12403891</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <v>3846105</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="K5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>16303655</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7">
         <v>7387417</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8">
         <v>15568300</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>4080711</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <v>9342598</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <v>1411473</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12">
         <v>7940780</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13">
         <v>3488157</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14">
         <v>7489320</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15">
         <v>5532955</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
-      </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16">
         <v>10561314</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>82</v>
-      </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17">
         <v>1316121</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2267,4 +2483,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>